--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>853100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>735700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>735700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>967600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>967600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>779800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>779800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>663500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>663500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3270800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>3270800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4975600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>4975600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4266700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>4266700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1202000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>1202000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2054400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>2054400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4165900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>4165900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1685900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>1685900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1037100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>1037100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1096300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3831500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>3831500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2973600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1145500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>1145500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1326200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>1326200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>661800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>661800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>643600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>643600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2505400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>2505400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2255900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1445800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>1445800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1543300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>1543300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82628,6 +82628,41 @@
         <v>9700000</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>3889800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82663,6 +82663,41 @@
         <v>3889800</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>2925700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82698,6 +82698,41 @@
         <v>2925700</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>2290800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82733,6 +82733,41 @@
         <v>2290800</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>2970100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82768,6 +82768,41 @@
         <v>2970100</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>5125400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82803,6 +82803,41 @@
         <v>5125400</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>1589200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82838,6 +82838,41 @@
         <v>1589200</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>1887300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82873,6 +82873,41 @@
         <v>1887300</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>6879600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82908,6 +82908,41 @@
         <v>6879600</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>2714600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82943,6 +82943,41 @@
         <v>2714600</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>4195800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82978,6 +82978,41 @@
         <v>4195800</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>2273500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83013,6 +83013,41 @@
         <v>2273500</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>5072400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83048,6 +83048,41 @@
         <v>5072400</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>4595000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83083,6 +83083,41 @@
         <v>4595000</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>2712000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83118,6 +83118,41 @@
         <v>2712000</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>2897100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2945"/>
+  <dimension ref="A1:I2946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103453,6 +103453,41 @@
         <v>2897100</v>
       </c>
     </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2946" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2946" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2946" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2946" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2946" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2946" t="n">
+        <v>5653600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2946"/>
+  <dimension ref="A1:I2947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103488,6 +103488,41 @@
         <v>5653600</v>
       </c>
     </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2947" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2947" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2947" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2947" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2947" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2947" t="n">
+        <v>10105900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2947"/>
+  <dimension ref="A1:I2948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103523,6 +103523,41 @@
         <v>10105900</v>
       </c>
     </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2948" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2948" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2948" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2948" t="n">
+        <v>6274500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2948"/>
+  <dimension ref="A1:I2949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103558,6 +103558,41 @@
         <v>6274500</v>
       </c>
     </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2949" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2949" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2949" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2949" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2949" t="n">
+        <v>3183800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2949"/>
+  <dimension ref="A1:I2950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103593,6 +103593,41 @@
         <v>3183800</v>
       </c>
     </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2950" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2950" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2950" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2950" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2950" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2950" t="n">
+        <v>4839400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2950"/>
+  <dimension ref="A1:I2951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103628,6 +103628,41 @@
         <v>4839400</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2951" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2951" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2951" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2951" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2951" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2951" t="n">
+        <v>2390500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2951"/>
+  <dimension ref="A1:I2952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103663,6 +103663,41 @@
         <v>2390500</v>
       </c>
     </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2952" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2952" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2952" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2952" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2952" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2952" t="n">
+        <v>3804200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2952"/>
+  <dimension ref="A1:I2953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103698,6 +103698,41 @@
         <v>3804200</v>
       </c>
     </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2953" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2953" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2953" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2953" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2953" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2953" t="n">
+        <v>6442600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2953"/>
+  <dimension ref="A1:I2954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103733,6 +103733,41 @@
         <v>6442600</v>
       </c>
     </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2954" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2954" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2954" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2954" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2954" t="n">
+        <v>3077200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2954"/>
+  <dimension ref="A1:I2955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103768,6 +103768,41 @@
         <v>3077200</v>
       </c>
     </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2955" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2955" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2955" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2955" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2955" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2955" t="n">
+        <v>7619600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2955"/>
+  <dimension ref="A1:I2957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103803,6 +103803,76 @@
         <v>7619600</v>
       </c>
     </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2956" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2956" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2956" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2956" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2956" t="n">
+        <v>14927800</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>5168</t>
+        </is>
+      </c>
+      <c r="D2957" t="inlineStr">
+        <is>
+          <t>HARTA</t>
+        </is>
+      </c>
+      <c r="E2957" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F2957" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G2957" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="H2957" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I2957" t="n">
+        <v>9327600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2957"/>
+  <dimension ref="A1:I2958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103873,6 +103873,41 @@
         <v>9327600</v>
       </c>
     </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2958" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2958" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2958" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2958" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2958" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2958" t="n">
+        <v>6652500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2958"/>
+  <dimension ref="A1:I2961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103908,6 +103908,111 @@
         <v>6652500</v>
       </c>
     </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2959" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2959" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2959" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2959" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2959" t="n">
+        <v>4516100</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2960" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2960" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2960" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2960" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2960" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2960" t="n">
+        <v>2844700</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2961" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2961" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2961" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2961" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2961" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2961" t="n">
+        <v>3927500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0078.xlsx
+++ b/data/0078.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2961"/>
+  <dimension ref="A1:I2962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104013,6 +104013,41 @@
         <v>3927500</v>
       </c>
     </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>0078</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>GDEX</t>
+        </is>
+      </c>
+      <c r="E2962" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2962" t="n">
+        <v>3123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
